--- a/Documents Word/Backlog site web.xlsx
+++ b/Documents Word/Backlog site web.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cedri\OneDrive\Bureau\Document\Drink's\drinks\Documents Word\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80CFD6CE-54B5-4B84-96A0-A0E3C586163B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2159D296-E9DC-4714-B797-2FF1DC22639D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{A980CE16-6455-436A-928B-C0B9780DC4BE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="60">
   <si>
     <t>ID</t>
   </si>
@@ -216,9 +216,6 @@
   </si>
   <si>
     <t>L'app saute l'étape et affiche la prochaine</t>
-  </si>
-  <si>
-    <t>s</t>
   </si>
 </sst>
 </file>
@@ -875,7 +872,7 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1313,7 +1310,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>36</v>
